--- a/database data.xlsx
+++ b/database data.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vipe1\Documents\School\CIT 225\sts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257318A-4B94-4E50-8B8F-EF1B3777C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B29031C-22FC-485E-8F7A-CED31BE353DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="8" activeTab="12" xr2:uid="{9F78A083-9FD6-49BE-A396-2E7B91BA4B12}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="6" activeTab="11" xr2:uid="{9F78A083-9FD6-49BE-A396-2E7B91BA4B12}"/>
   </bookViews>
   <sheets>
     <sheet name="potion" sheetId="1" r:id="rId1"/>
     <sheet name="relic" sheetId="2" r:id="rId2"/>
     <sheet name="character" sheetId="3" r:id="rId3"/>
-    <sheet name="enemy" sheetId="4" r:id="rId4"/>
-    <sheet name="encounter" sheetId="5" r:id="rId5"/>
-    <sheet name="card" sheetId="6" r:id="rId6"/>
-    <sheet name="run" sheetId="7" r:id="rId7"/>
-    <sheet name="run_has_card" sheetId="8" r:id="rId8"/>
-    <sheet name="run_has_potion" sheetId="9" r:id="rId9"/>
-    <sheet name="run_has_relic" sheetId="10" r:id="rId10"/>
-    <sheet name="run_has_encounter" sheetId="11" r:id="rId11"/>
+    <sheet name="card" sheetId="6" r:id="rId4"/>
+    <sheet name="run" sheetId="7" r:id="rId5"/>
+    <sheet name="run_has_card" sheetId="8" r:id="rId6"/>
+    <sheet name="run_has_potion" sheetId="9" r:id="rId7"/>
+    <sheet name="run_has_relic" sheetId="10" r:id="rId8"/>
+    <sheet name="run_has_encounter" sheetId="11" r:id="rId9"/>
+    <sheet name="enemy" sheetId="4" r:id="rId10"/>
+    <sheet name="encounter" sheetId="5" r:id="rId11"/>
     <sheet name="encounter_has_enemy" sheetId="12" r:id="rId12"/>
-    <sheet name="player" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="712">
   <si>
     <t>potion_name</t>
   </si>
@@ -886,9 +885,6 @@
     <t>Corrupt Heart</t>
   </si>
   <si>
-    <t>Shield Weapons</t>
-  </si>
-  <si>
     <t>2 Louses</t>
   </si>
   <si>
@@ -958,15 +954,6 @@
     <t>Jaw Worm Horde</t>
   </si>
   <si>
-    <t>character_id</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Bash</t>
   </si>
   <si>
@@ -2116,7 +2103,85 @@
     <t>relic</t>
   </si>
   <si>
-    <t>en</t>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>2 louse</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>jaw worm</t>
+  </si>
+  <si>
+    <t>wallop</t>
+  </si>
+  <si>
+    <t>bronze scales</t>
+  </si>
+  <si>
+    <t>small slimes</t>
+  </si>
+  <si>
+    <t>mental fortress</t>
+  </si>
+  <si>
+    <t>lagavulin</t>
+  </si>
+  <si>
+    <t>dream catcher</t>
+  </si>
+  <si>
+    <t>gremlin nob</t>
+  </si>
+  <si>
+    <t>ancient tea set</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>slaver</t>
+  </si>
+  <si>
+    <t>smoke bomb</t>
+  </si>
+  <si>
+    <t>empty fist</t>
+  </si>
+  <si>
+    <t>Lots of slimes</t>
+  </si>
+  <si>
+    <t>blasphemy</t>
+  </si>
+  <si>
+    <t>black star</t>
+  </si>
+  <si>
+    <t>encounter_id</t>
+  </si>
+  <si>
+    <t>enemy_id</t>
+  </si>
+  <si>
+    <t>Donu</t>
+  </si>
+  <si>
+    <t>Deca</t>
+  </si>
+  <si>
+    <t>Tri-Sentry</t>
+  </si>
+  <si>
+    <t>Spire Weapons</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED41618-E6CC-4E57-AA0B-136D7AFA2C5F}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2697,21 +2762,273 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3F2A88-01FD-4B73-B72C-191F1F228E5A}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F43258-D83B-4569-AF44-66E63A1ECB9B}">
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B1" t="s">
-        <v>688</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2720,40 +3037,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C3A75-08C1-4DA9-96B9-5CDD154084FC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0894A92-DB1F-4A56-8426-9426E668F099}">
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5404CE11-4047-4E55-AECE-6B5FA54C2EFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D988D60-B6F3-40BA-A0F9-27F099090DED}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>689</v>
+        <v>706</v>
+      </c>
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>33</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>33</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>39</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>41</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>42</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>44</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>45</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>45</v>
+      </c>
+      <c r="B73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>48</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>49</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>51</v>
+      </c>
+      <c r="B80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>52</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>53</v>
+      </c>
+      <c r="B82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>53</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>54</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>56</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>57</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3717,596 +5006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F43258-D83B-4569-AF44-66E63A1ECB9B}">
-  <dimension ref="A1:A52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D362B-AF3C-458B-A7B8-246C33B50B6C}">
+  <dimension ref="A1:D339"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0894A92-DB1F-4A56-8426-9426E668F099}">
-  <dimension ref="A1:A59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D362B-AF3C-458B-A7B8-246C33B50B6C}">
-  <dimension ref="A1:D340"/>
-  <sheetViews>
-    <sheetView topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4316,17 +5020,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" t="s">
-        <v>304</v>
-      </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4334,13 +5038,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4348,13 +5052,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4362,13 +5066,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -4376,13 +5080,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4390,13 +5094,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4404,13 +5108,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4418,13 +5122,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4432,13 +5136,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" t="s">
         <v>317</v>
       </c>
-      <c r="C9" t="s">
-        <v>318</v>
-      </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4446,13 +5150,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4460,13 +5164,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4474,13 +5178,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4488,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -4502,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -4516,13 +5220,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -4530,13 +5234,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -4544,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -4558,13 +5262,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -4572,13 +5276,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -4586,13 +5290,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -4600,13 +5304,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -4614,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -4628,13 +5332,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -4642,13 +5346,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -4656,13 +5360,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -4670,13 +5374,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -4684,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -4698,13 +5402,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -4712,13 +5416,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -4726,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -4740,13 +5444,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -4754,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -4768,13 +5472,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -4782,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D34" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -4796,13 +5500,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -4810,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D36" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -4824,13 +5528,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -4838,13 +5542,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -4852,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -4866,13 +5570,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -4880,13 +5584,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -4894,13 +5598,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D42" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -4908,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -4922,13 +5626,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D44" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -4936,13 +5640,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -4950,13 +5654,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -4964,13 +5668,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -4978,13 +5682,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -4992,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -5006,13 +5710,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -5020,13 +5724,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -5034,13 +5738,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C52" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -5048,13 +5752,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -5062,13 +5766,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C54" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -5076,13 +5780,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C55" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -5090,13 +5794,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C56" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -5104,13 +5808,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -5118,13 +5822,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C58" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -5132,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D59" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -5146,13 +5850,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D60" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -5160,13 +5864,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -5174,13 +5878,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C62" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D62" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -5188,13 +5892,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -5202,13 +5906,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D64" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -5216,13 +5920,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -5230,13 +5934,13 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -5244,13 +5948,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C67" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -5258,13 +5962,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -5272,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -5286,13 +5990,13 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -5300,13 +6004,13 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D71" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -5314,13 +6018,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C72" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -5328,27 +6032,27 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C73" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -5356,13 +6060,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C75" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -5370,13 +6074,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -5384,13 +6088,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C77" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -5398,13 +6102,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -5412,13 +6116,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C79" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="D79" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -5426,13 +6130,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -5440,13 +6144,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C81" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -5454,13 +6158,13 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -5468,13 +6172,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C83" t="s">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="D83" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -5482,13 +6186,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -5496,13 +6200,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C85" t="s">
         <v>397</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -5510,13 +6214,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C86" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -5524,13 +6228,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -5538,13 +6242,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
       <c r="D88" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -5552,13 +6256,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C89" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -5566,13 +6270,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -5580,13 +6284,13 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -5594,13 +6298,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -5608,13 +6312,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -5622,13 +6326,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -5636,13 +6340,13 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="D95" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -5650,13 +6354,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -5664,13 +6368,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -5678,13 +6382,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -5692,13 +6396,13 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -5706,13 +6410,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>424</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -5720,13 +6424,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -5734,13 +6438,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C102" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -5748,13 +6452,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -5762,13 +6466,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C104" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="D104" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -5776,13 +6480,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -5790,13 +6494,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C106" t="s">
         <v>397</v>
       </c>
       <c r="D106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -5804,13 +6508,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C107" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="D107" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -5818,13 +6522,13 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -5832,13 +6536,13 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="D109" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -5846,13 +6550,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C110" t="s">
-        <v>435</v>
+        <v>324</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -5860,13 +6564,13 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -5874,13 +6578,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C112" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -5888,13 +6592,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C113" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D113" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -5902,13 +6606,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C114" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D114" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -5916,13 +6620,13 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C115" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -5930,13 +6634,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="D116" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -5944,13 +6648,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C117" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -5958,13 +6662,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -5972,13 +6676,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C119" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D119" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -5986,13 +6690,13 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C120" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -6000,13 +6704,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C121" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="D121" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -6014,13 +6718,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C122" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -6028,13 +6732,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C123" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="D123" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -6042,13 +6746,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D124" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -6056,13 +6760,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C125" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
@@ -6070,13 +6774,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C126" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="D126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -6084,13 +6788,13 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C127" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="D127" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -6098,13 +6802,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C128" t="s">
-        <v>307</v>
+        <v>452</v>
       </c>
       <c r="D128" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -6112,13 +6816,13 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C129" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -6126,13 +6830,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D130" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -6140,13 +6844,13 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C131" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -6154,13 +6858,13 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C132" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D132" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -6168,13 +6872,13 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C133" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D133" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -6182,13 +6886,13 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D134" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -6196,13 +6900,13 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C135" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -6210,13 +6914,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
@@ -6224,13 +6928,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C137" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="D137" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -6238,13 +6942,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
@@ -6252,13 +6956,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C139" t="s">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="D139" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -6266,13 +6970,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C140" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D140" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -6280,13 +6984,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D141" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -6294,13 +6998,13 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -6308,13 +7012,13 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D143" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -6322,13 +7026,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C144" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="D144" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -6336,13 +7040,13 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C145" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D145" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -6350,13 +7054,13 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C146" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D146" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -6364,27 +7068,27 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C147" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C148" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D148" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
@@ -6392,13 +7096,13 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C149" t="s">
-        <v>309</v>
+        <v>474</v>
       </c>
       <c r="D149" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
@@ -6406,13 +7110,13 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C150" t="s">
-        <v>478</v>
+        <v>308</v>
       </c>
       <c r="D150" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
@@ -6420,13 +7124,13 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C151" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="D151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
@@ -6434,13 +7138,13 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C152" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D152" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
@@ -6448,13 +7152,13 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C153" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D153" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
@@ -6462,13 +7166,13 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C154" t="s">
-        <v>481</v>
+        <v>303</v>
       </c>
       <c r="D154" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
@@ -6476,13 +7180,13 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="D155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
@@ -6490,13 +7194,13 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C156" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
@@ -6504,13 +7208,13 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C157" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="D157" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
@@ -6518,13 +7222,13 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C158" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D158" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
@@ -6532,13 +7236,13 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C159" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
@@ -6546,13 +7250,13 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C160" t="s">
-        <v>481</v>
+        <v>314</v>
       </c>
       <c r="D160" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
@@ -6560,13 +7264,13 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C161" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
@@ -6574,13 +7278,13 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
@@ -6588,13 +7292,13 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C163" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D163" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
@@ -6602,13 +7306,13 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C164" t="s">
-        <v>312</v>
+        <v>474</v>
       </c>
       <c r="D164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
@@ -6616,13 +7320,13 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C165" t="s">
-        <v>478</v>
+        <v>305</v>
       </c>
       <c r="D165" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
@@ -6630,13 +7334,13 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D166" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
@@ -6644,13 +7348,13 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
@@ -6658,13 +7362,13 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C168" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
@@ -6672,13 +7376,13 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C169" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="D169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
@@ -6686,13 +7390,13 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C170" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D170" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
@@ -6700,13 +7404,13 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C171" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="D171" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
@@ -6714,13 +7418,13 @@
         <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="D172" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
@@ -6728,13 +7432,13 @@
         <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C173" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="D173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
@@ -6742,13 +7446,13 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D174" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
@@ -6756,13 +7460,13 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C175" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="D175" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
@@ -6770,13 +7474,13 @@
         <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D176" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -6784,13 +7488,13 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C177" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D177" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
@@ -6798,13 +7502,13 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C178" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D178" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
@@ -6812,13 +7516,13 @@
         <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C179" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="D179" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -6826,13 +7530,13 @@
         <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C180" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D180" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
@@ -6840,13 +7544,13 @@
         <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C181" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
@@ -6854,13 +7558,13 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C182" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="D182" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
@@ -6868,13 +7572,13 @@
         <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C183" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="D183" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -6882,13 +7586,13 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C184" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="D184" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
@@ -6896,13 +7600,13 @@
         <v>3</v>
       </c>
       <c r="B185" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C185" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="D185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
@@ -6910,13 +7614,13 @@
         <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C186" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="D186" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
@@ -6924,13 +7628,13 @@
         <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="D187" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
@@ -6938,13 +7642,13 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C188" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="D188" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -6952,13 +7656,13 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C189" t="s">
-        <v>481</v>
+        <v>324</v>
       </c>
       <c r="D189" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -6966,13 +7670,13 @@
         <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C190" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D190" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -6980,13 +7684,13 @@
         <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="D191" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -6994,13 +7698,13 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C192" t="s">
-        <v>481</v>
+        <v>308</v>
       </c>
       <c r="D192" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
@@ -7008,13 +7712,13 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C193" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D193" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -7022,13 +7726,13 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C194" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="D194" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -7036,13 +7740,13 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C195" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="D195" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -7050,13 +7754,13 @@
         <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C196" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D196" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -7064,13 +7768,13 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C197" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D197" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -7078,13 +7782,13 @@
         <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C198" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="D198" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
@@ -7092,13 +7796,13 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C199" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="D199" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -7106,13 +7810,13 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C200" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D200" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -7120,13 +7824,13 @@
         <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C201" t="s">
-        <v>328</v>
+        <v>477</v>
       </c>
       <c r="D201" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -7134,13 +7838,13 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C202" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D202" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
@@ -7148,13 +7852,13 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C203" t="s">
-        <v>481</v>
+        <v>308</v>
       </c>
       <c r="D203" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -7162,13 +7866,13 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C204" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="D204" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
@@ -7176,13 +7880,13 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C205" t="s">
-        <v>481</v>
+        <v>308</v>
       </c>
       <c r="D205" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
@@ -7190,13 +7894,13 @@
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C206" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="D206" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
@@ -7204,13 +7908,13 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C207" t="s">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="D207" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -7218,13 +7922,13 @@
         <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C208" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="D208" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -7232,13 +7936,13 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C209" t="s">
-        <v>509</v>
+        <v>308</v>
       </c>
       <c r="D209" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
@@ -7246,13 +7950,13 @@
         <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C210" t="s">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="D210" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -7260,13 +7964,13 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C211" t="s">
-        <v>542</v>
+        <v>308</v>
       </c>
       <c r="D211" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -7274,13 +7978,13 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C212" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D212" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -7288,13 +7992,13 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C213" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="D213" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -7302,13 +8006,13 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="C214" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D214" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -7316,13 +8020,13 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="C215" t="s">
-        <v>478</v>
+        <v>308</v>
       </c>
       <c r="D215" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -7330,13 +8034,13 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C216" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D216" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -7344,13 +8048,13 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C217" t="s">
-        <v>328</v>
+        <v>477</v>
       </c>
       <c r="D217" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -7358,13 +8062,13 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C218" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D218" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -7372,13 +8076,13 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C219" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D219" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
@@ -7386,13 +8090,13 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C220" t="s">
-        <v>481</v>
+        <v>324</v>
       </c>
       <c r="D220" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
@@ -7400,13 +8104,13 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C221" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D221" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
@@ -7414,27 +8118,27 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C222" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="D222" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C223" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="D223" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
@@ -7442,13 +8146,13 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C224" t="s">
-        <v>309</v>
+        <v>552</v>
       </c>
       <c r="D224" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
@@ -7456,13 +8160,13 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>555</v>
+        <v>307</v>
       </c>
       <c r="C225" t="s">
-        <v>556</v>
+        <v>308</v>
       </c>
       <c r="D225" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
@@ -7470,13 +8174,13 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>553</v>
       </c>
       <c r="C226" t="s">
-        <v>312</v>
+        <v>554</v>
       </c>
       <c r="D226" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
@@ -7484,13 +8188,13 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C227" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="D227" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
@@ -7498,13 +8202,13 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C228" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D228" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
@@ -7512,13 +8216,13 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C229" t="s">
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="D229" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
@@ -7526,13 +8230,13 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C230" t="s">
-        <v>556</v>
+        <v>303</v>
       </c>
       <c r="D230" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
@@ -7540,13 +8244,13 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C231" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="D231" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
@@ -7554,13 +8258,13 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C232" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D232" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
@@ -7568,13 +8272,13 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C233" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D233" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
@@ -7582,13 +8286,13 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C234" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D234" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
@@ -7596,13 +8300,13 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C235" t="s">
-        <v>566</v>
+        <v>452</v>
       </c>
       <c r="D235" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
@@ -7610,13 +8314,13 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C236" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="D236" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
@@ -7624,13 +8328,13 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C237" t="s">
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="D237" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
@@ -7638,13 +8342,13 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C238" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D238" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
@@ -7652,13 +8356,13 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C239" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D239" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
@@ -7666,13 +8370,13 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C240" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D240" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
@@ -7680,13 +8384,13 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C241" t="s">
-        <v>576</v>
+        <v>452</v>
       </c>
       <c r="D241" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -7694,13 +8398,13 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C242" t="s">
-        <v>456</v>
+        <v>314</v>
       </c>
       <c r="D242" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -7708,13 +8412,13 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C243" t="s">
-        <v>318</v>
+        <v>560</v>
       </c>
       <c r="D243" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -7722,13 +8426,13 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C244" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D244" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
@@ -7736,13 +8440,13 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C245" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D245" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
@@ -7750,13 +8454,13 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C246" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D246" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
@@ -7764,13 +8468,13 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C247" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D247" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -7778,13 +8482,13 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C248" t="s">
-        <v>585</v>
+        <v>308</v>
       </c>
       <c r="D248" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -7792,13 +8496,13 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C249" t="s">
-        <v>312</v>
+        <v>584</v>
       </c>
       <c r="D249" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -7806,13 +8510,13 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C250" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="D250" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -7820,13 +8524,13 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C251" t="s">
-        <v>566</v>
+        <v>317</v>
       </c>
       <c r="D251" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -7834,13 +8538,13 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C252" t="s">
-        <v>321</v>
+        <v>554</v>
       </c>
       <c r="D252" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -7848,13 +8552,13 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C253" t="s">
-        <v>558</v>
+        <v>316</v>
       </c>
       <c r="D253" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -7862,13 +8566,13 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C254" t="s">
-        <v>320</v>
+        <v>552</v>
       </c>
       <c r="D254" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -7876,13 +8580,13 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C255" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D255" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -7890,13 +8594,13 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C256" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D256" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -7904,13 +8608,13 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C257" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D257" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
@@ -7918,13 +8622,13 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C258" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D258" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
@@ -7932,13 +8636,13 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C259" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D259" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
@@ -7946,13 +8650,13 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C260" t="s">
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="D260" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
@@ -7960,13 +8664,13 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C261" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="D261" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
@@ -7974,13 +8678,13 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C262" t="s">
-        <v>576</v>
+        <v>308</v>
       </c>
       <c r="D262" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
@@ -7988,13 +8692,13 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C263" t="s">
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="D263" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
@@ -8002,13 +8706,13 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C264" t="s">
-        <v>556</v>
+        <v>324</v>
       </c>
       <c r="D264" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
@@ -8016,13 +8720,13 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C265" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="D265" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
@@ -8030,13 +8734,13 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C266" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="D266" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
@@ -8044,13 +8748,13 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C267" t="s">
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="D267" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
@@ -8058,13 +8762,13 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C268" t="s">
-        <v>556</v>
+        <v>305</v>
       </c>
       <c r="D268" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
@@ -8072,13 +8776,13 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C269" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D269" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
@@ -8086,13 +8790,13 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C270" t="s">
-        <v>309</v>
+        <v>552</v>
       </c>
       <c r="D270" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
@@ -8100,13 +8804,13 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C271" t="s">
-        <v>556</v>
+        <v>305</v>
       </c>
       <c r="D271" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
@@ -8114,13 +8818,13 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C272" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D272" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
@@ -8128,13 +8832,13 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C273" t="s">
-        <v>318</v>
+        <v>560</v>
       </c>
       <c r="D273" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
@@ -8142,13 +8846,13 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C274" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="D274" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
@@ -8156,13 +8860,13 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C275" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="D275" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
@@ -8170,13 +8874,13 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C276" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="D276" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
@@ -8184,13 +8888,13 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C277" t="s">
-        <v>576</v>
+        <v>308</v>
       </c>
       <c r="D277" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
@@ -8198,13 +8902,13 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C278" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D278" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
@@ -8212,13 +8916,13 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C279" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="D279" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
@@ -8226,13 +8930,13 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C280" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D280" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
@@ -8240,13 +8944,13 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C281" t="s">
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="D281" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
@@ -8254,13 +8958,13 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C282" t="s">
-        <v>320</v>
+        <v>581</v>
       </c>
       <c r="D282" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
@@ -8268,13 +8972,13 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C283" t="s">
-        <v>585</v>
+        <v>407</v>
       </c>
       <c r="D283" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
@@ -8282,13 +8986,13 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C284" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="D284" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
@@ -8296,13 +9000,13 @@
         <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C285" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="D285" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
@@ -8310,13 +9014,13 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C286" t="s">
-        <v>312</v>
+        <v>623</v>
       </c>
       <c r="D286" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
@@ -8324,13 +9028,13 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C287" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D287" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
@@ -8338,13 +9042,13 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C288" t="s">
-        <v>627</v>
+        <v>316</v>
       </c>
       <c r="D288" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
@@ -8352,13 +9056,13 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C289" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D289" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
@@ -8366,13 +9070,13 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C290" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D290" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
@@ -8380,13 +9084,13 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C291" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D291" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
@@ -8394,13 +9098,13 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C292" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D292" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
@@ -8408,27 +9112,27 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C293" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D293" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C294" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D294" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
@@ -8436,521 +9140,643 @@
         <v>5</v>
       </c>
       <c r="B295" t="s">
+        <v>632</v>
+      </c>
+      <c r="C295" t="s">
+        <v>314</v>
+      </c>
+      <c r="D295" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>633</v>
+      </c>
+      <c r="C296" t="s">
+        <v>316</v>
+      </c>
+      <c r="D296" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
+        <v>634</v>
+      </c>
+      <c r="C297" t="s">
+        <v>324</v>
+      </c>
+      <c r="D297" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
         <v>635</v>
       </c>
-      <c r="C295" t="s">
-        <v>339</v>
-      </c>
-      <c r="D295" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B296" t="s">
+      <c r="C298" t="s">
+        <v>316</v>
+      </c>
+      <c r="D298" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
         <v>636</v>
       </c>
-      <c r="C296" t="s">
-        <v>318</v>
-      </c>
-      <c r="D296" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B297" t="s">
+      <c r="C299" t="s">
+        <v>316</v>
+      </c>
+      <c r="D299" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
         <v>637</v>
       </c>
-      <c r="C297" t="s">
-        <v>320</v>
-      </c>
-      <c r="D297" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B298" t="s">
+      <c r="C300" t="s">
+        <v>308</v>
+      </c>
+      <c r="D300" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
         <v>638</v>
       </c>
-      <c r="C298" t="s">
-        <v>328</v>
-      </c>
-      <c r="D298" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B299" t="s">
+      <c r="C301" t="s">
+        <v>324</v>
+      </c>
+      <c r="D301" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
         <v>639</v>
       </c>
-      <c r="C299" t="s">
-        <v>320</v>
-      </c>
-      <c r="D299" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B300" t="s">
+      <c r="C302" t="s">
+        <v>324</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303" t="s">
         <v>640</v>
       </c>
-      <c r="C300" t="s">
-        <v>320</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="C303" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B301" t="s">
+      <c r="D303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
         <v>641</v>
       </c>
-      <c r="C301" t="s">
-        <v>312</v>
-      </c>
-      <c r="D301" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B302" t="s">
+      <c r="C304" t="s">
+        <v>324</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>5</v>
+      </c>
+      <c r="B305" t="s">
         <v>642</v>
       </c>
-      <c r="C302" t="s">
-        <v>328</v>
-      </c>
-      <c r="D302" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B303" t="s">
+      <c r="C305" t="s">
+        <v>316</v>
+      </c>
+      <c r="D305" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306" t="s">
         <v>643</v>
       </c>
-      <c r="C303" t="s">
-        <v>328</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="C306" t="s">
+        <v>316</v>
+      </c>
+      <c r="D306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>5</v>
+      </c>
+      <c r="B307" t="s">
+        <v>644</v>
+      </c>
+      <c r="C307" t="s">
+        <v>645</v>
+      </c>
+      <c r="D307" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>5</v>
+      </c>
+      <c r="B308" t="s">
+        <v>646</v>
+      </c>
+      <c r="C308" t="s">
+        <v>538</v>
+      </c>
+      <c r="D308" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>647</v>
+      </c>
+      <c r="C309" t="s">
+        <v>305</v>
+      </c>
+      <c r="D309" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s">
+        <v>648</v>
+      </c>
+      <c r="C310" t="s">
+        <v>316</v>
+      </c>
+      <c r="D310" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>649</v>
+      </c>
+      <c r="C311" t="s">
+        <v>414</v>
+      </c>
+      <c r="D311" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>650</v>
+      </c>
+      <c r="C312" t="s">
+        <v>303</v>
+      </c>
+      <c r="D312" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313" t="s">
+        <v>651</v>
+      </c>
+      <c r="C313" t="s">
+        <v>623</v>
+      </c>
+      <c r="D313" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>652</v>
+      </c>
+      <c r="C314" t="s">
+        <v>316</v>
+      </c>
+      <c r="D314" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>653</v>
+      </c>
+      <c r="C315" t="s">
+        <v>622</v>
+      </c>
+      <c r="D315" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>5</v>
+      </c>
+      <c r="B316" t="s">
+        <v>654</v>
+      </c>
+      <c r="C316" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B304" t="s">
-        <v>644</v>
-      </c>
-      <c r="C304" t="s">
-        <v>312</v>
-      </c>
-      <c r="D304" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B305" t="s">
-        <v>645</v>
-      </c>
-      <c r="C305" t="s">
-        <v>328</v>
-      </c>
-      <c r="D305" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B306" t="s">
-        <v>646</v>
-      </c>
-      <c r="C306" t="s">
-        <v>320</v>
-      </c>
-      <c r="D306" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B307" t="s">
-        <v>647</v>
-      </c>
-      <c r="C307" t="s">
-        <v>320</v>
-      </c>
-      <c r="D307" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B308" t="s">
-        <v>648</v>
-      </c>
-      <c r="C308" t="s">
-        <v>649</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="D316" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>655</v>
+      </c>
+      <c r="C317" t="s">
+        <v>324</v>
+      </c>
+      <c r="D317" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>5</v>
+      </c>
+      <c r="B318" t="s">
+        <v>656</v>
+      </c>
+      <c r="C318" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B309" t="s">
-        <v>650</v>
-      </c>
-      <c r="C309" t="s">
-        <v>542</v>
-      </c>
-      <c r="D309" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B310" t="s">
-        <v>651</v>
-      </c>
-      <c r="C310" t="s">
-        <v>309</v>
-      </c>
-      <c r="D310" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B311" t="s">
-        <v>652</v>
-      </c>
-      <c r="C311" t="s">
-        <v>320</v>
-      </c>
-      <c r="D311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B312" t="s">
-        <v>653</v>
-      </c>
-      <c r="C312" t="s">
-        <v>418</v>
-      </c>
-      <c r="D312" t="s">
+      <c r="D318" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>5</v>
+      </c>
+      <c r="B319" t="s">
+        <v>657</v>
+      </c>
+      <c r="C319" t="s">
+        <v>316</v>
+      </c>
+      <c r="D319" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>5</v>
+      </c>
+      <c r="B320" t="s">
+        <v>658</v>
+      </c>
+      <c r="C320" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B313" t="s">
-        <v>654</v>
-      </c>
-      <c r="C313" t="s">
-        <v>307</v>
-      </c>
-      <c r="D313" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B314" t="s">
-        <v>655</v>
-      </c>
-      <c r="C314" t="s">
-        <v>627</v>
-      </c>
-      <c r="D314" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B315" t="s">
-        <v>656</v>
-      </c>
-      <c r="C315" t="s">
-        <v>320</v>
-      </c>
-      <c r="D315" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B316" t="s">
-        <v>657</v>
-      </c>
-      <c r="C316" t="s">
-        <v>626</v>
-      </c>
-      <c r="D316" t="s">
+      <c r="D320" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>659</v>
+      </c>
+      <c r="C321" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B317" t="s">
-        <v>658</v>
-      </c>
-      <c r="C317" t="s">
-        <v>312</v>
-      </c>
-      <c r="D317" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B318" t="s">
-        <v>659</v>
-      </c>
-      <c r="C318" t="s">
-        <v>328</v>
-      </c>
-      <c r="D318" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B319" t="s">
+      <c r="D321" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>5</v>
+      </c>
+      <c r="B322" t="s">
         <v>660</v>
       </c>
-      <c r="C319" t="s">
-        <v>312</v>
-      </c>
-      <c r="D319" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B320" t="s">
+      <c r="C322" t="s">
+        <v>316</v>
+      </c>
+      <c r="D322" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>5</v>
+      </c>
+      <c r="B323" t="s">
         <v>661</v>
       </c>
-      <c r="C320" t="s">
-        <v>320</v>
-      </c>
-      <c r="D320" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B321" t="s">
+      <c r="C323" t="s">
+        <v>316</v>
+      </c>
+      <c r="D323" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>5</v>
+      </c>
+      <c r="B324" t="s">
         <v>662</v>
       </c>
-      <c r="C321" t="s">
-        <v>312</v>
-      </c>
-      <c r="D321" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B322" t="s">
+      <c r="C324" t="s">
+        <v>308</v>
+      </c>
+      <c r="D324" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
         <v>663</v>
       </c>
-      <c r="C322" t="s">
-        <v>312</v>
-      </c>
-      <c r="D322" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B323" t="s">
+      <c r="C325" t="s">
+        <v>324</v>
+      </c>
+      <c r="D325" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
         <v>664</v>
       </c>
-      <c r="C323" t="s">
-        <v>320</v>
-      </c>
-      <c r="D323" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B324" t="s">
+      <c r="C326" t="s">
+        <v>316</v>
+      </c>
+      <c r="D326" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>5</v>
+      </c>
+      <c r="B327" t="s">
         <v>665</v>
       </c>
-      <c r="C324" t="s">
-        <v>320</v>
-      </c>
-      <c r="D324" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B325" t="s">
+      <c r="C327" t="s">
+        <v>316</v>
+      </c>
+      <c r="D327" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s">
         <v>666</v>
       </c>
-      <c r="C325" t="s">
-        <v>312</v>
-      </c>
-      <c r="D325" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B326" t="s">
+      <c r="C328" t="s">
         <v>667</v>
       </c>
-      <c r="C326" t="s">
-        <v>328</v>
-      </c>
-      <c r="D326" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B327" t="s">
+      <c r="D328" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
         <v>668</v>
       </c>
-      <c r="C327" t="s">
-        <v>320</v>
-      </c>
-      <c r="D327" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B328" t="s">
+      <c r="C329" t="s">
+        <v>308</v>
+      </c>
+      <c r="D329" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
         <v>669</v>
       </c>
-      <c r="C328" t="s">
-        <v>320</v>
-      </c>
-      <c r="D328" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B329" t="s">
+      <c r="C330" t="s">
+        <v>335</v>
+      </c>
+      <c r="D330" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
         <v>670</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C331" t="s">
+        <v>324</v>
+      </c>
+      <c r="D331" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>5</v>
+      </c>
+      <c r="B332" t="s">
         <v>671</v>
       </c>
-      <c r="D329" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B330" t="s">
+      <c r="C332" t="s">
+        <v>317</v>
+      </c>
+      <c r="D332" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>5</v>
+      </c>
+      <c r="B333" t="s">
+        <v>581</v>
+      </c>
+      <c r="C333" t="s">
+        <v>407</v>
+      </c>
+      <c r="D333" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>5</v>
+      </c>
+      <c r="B334" t="s">
         <v>672</v>
       </c>
-      <c r="C330" t="s">
-        <v>312</v>
-      </c>
-      <c r="D330" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B331" t="s">
+      <c r="C334" t="s">
+        <v>308</v>
+      </c>
+      <c r="D334" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>5</v>
+      </c>
+      <c r="B335" t="s">
         <v>673</v>
       </c>
-      <c r="C331" t="s">
-        <v>339</v>
-      </c>
-      <c r="D331" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B332" t="s">
+      <c r="C335" t="s">
+        <v>622</v>
+      </c>
+      <c r="D335" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>5</v>
+      </c>
+      <c r="B336" t="s">
+        <v>584</v>
+      </c>
+      <c r="C336" t="s">
+        <v>452</v>
+      </c>
+      <c r="D336" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>5</v>
+      </c>
+      <c r="B337" t="s">
+        <v>399</v>
+      </c>
+      <c r="C337" t="s">
+        <v>399</v>
+      </c>
+      <c r="D337" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>5</v>
+      </c>
+      <c r="B338" t="s">
+        <v>578</v>
+      </c>
+      <c r="C338" t="s">
+        <v>452</v>
+      </c>
+      <c r="D338" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s">
         <v>674</v>
       </c>
-      <c r="C332" t="s">
-        <v>328</v>
-      </c>
-      <c r="D332" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B333" t="s">
-        <v>675</v>
-      </c>
-      <c r="C333" t="s">
-        <v>321</v>
-      </c>
-      <c r="D333" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B334" t="s">
-        <v>585</v>
-      </c>
-      <c r="C334" t="s">
-        <v>411</v>
-      </c>
-      <c r="D334" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B335" t="s">
-        <v>676</v>
-      </c>
-      <c r="C335" t="s">
-        <v>312</v>
-      </c>
-      <c r="D335" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B336" t="s">
-        <v>677</v>
-      </c>
-      <c r="C336" t="s">
-        <v>626</v>
-      </c>
-      <c r="D336" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B337" t="s">
-        <v>588</v>
-      </c>
-      <c r="C337" t="s">
-        <v>456</v>
-      </c>
-      <c r="D337" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B338" t="s">
-        <v>403</v>
-      </c>
-      <c r="C338" t="s">
-        <v>403</v>
-      </c>
-      <c r="D338" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B339" t="s">
-        <v>582</v>
-      </c>
       <c r="C339" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D339" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B340" t="s">
-        <v>678</v>
-      </c>
-      <c r="C340" t="s">
-        <v>456</v>
-      </c>
-      <c r="D340" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B07AE2-EF0A-4788-90BE-E233EF9E84DE}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8960,25 +9786,157 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F1" t="s">
         <v>679</v>
       </c>
+      <c r="G1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E9707-D3DF-4F7C-A503-C9CF70C9EA54}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>681</v>
+      </c>
       <c r="B1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A790E150-FBFA-4731-9451-0BA958AF9375}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>681</v>
       </c>
-      <c r="E1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" t="s">
         <v>683</v>
       </c>
-      <c r="G1" t="s">
-        <v>684</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -8987,21 +9945,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E9707-D3DF-4F7C-A503-C9CF70C9EA54}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3F2A88-01FD-4B73-B72C-191F1F228E5A}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s">
-        <v>686</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -9010,21 +9993,56 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A790E150-FBFA-4731-9451-0BA958AF9375}">
-  <dimension ref="D1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C3A75-08C1-4DA9-96B9-5CDD154084FC}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>685</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/database data.xlsx
+++ b/database data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vipe1\Documents\School\CIT 225\sts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B29031C-22FC-485E-8F7A-CED31BE353DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D982CDF0-65FD-4A77-B802-6E3D414BDCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="6" activeTab="11" xr2:uid="{9F78A083-9FD6-49BE-A396-2E7B91BA4B12}"/>
   </bookViews>
@@ -16,13 +16,13 @@
     <sheet name="potion" sheetId="1" r:id="rId1"/>
     <sheet name="relic" sheetId="2" r:id="rId2"/>
     <sheet name="character" sheetId="3" r:id="rId3"/>
-    <sheet name="card" sheetId="6" r:id="rId4"/>
-    <sheet name="run" sheetId="7" r:id="rId5"/>
-    <sheet name="run_has_card" sheetId="8" r:id="rId6"/>
-    <sheet name="run_has_potion" sheetId="9" r:id="rId7"/>
-    <sheet name="run_has_relic" sheetId="10" r:id="rId8"/>
-    <sheet name="run_has_encounter" sheetId="11" r:id="rId9"/>
-    <sheet name="enemy" sheetId="4" r:id="rId10"/>
+    <sheet name="run" sheetId="7" r:id="rId4"/>
+    <sheet name="card" sheetId="6" r:id="rId5"/>
+    <sheet name="enemy" sheetId="4" r:id="rId6"/>
+    <sheet name="run_has_card" sheetId="8" r:id="rId7"/>
+    <sheet name="run_has_potion" sheetId="9" r:id="rId8"/>
+    <sheet name="run_has_relic" sheetId="10" r:id="rId9"/>
+    <sheet name="run_has_encounter" sheetId="11" r:id="rId10"/>
     <sheet name="encounter" sheetId="5" r:id="rId11"/>
     <sheet name="encounter_has_enemy" sheetId="12" r:id="rId12"/>
   </sheets>
@@ -46,10 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="712">
-  <si>
-    <t>potion_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="690">
   <si>
     <t>Ambrosia</t>
   </si>
@@ -177,9 +174,6 @@
     <t>Weak Potion</t>
   </si>
   <si>
-    <t>relic_name</t>
-  </si>
-  <si>
     <t>Burning Blood</t>
   </si>
   <si>
@@ -714,9 +708,6 @@
     <t>Circlet</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Ironclad</t>
   </si>
   <si>
@@ -2107,63 +2098,6 @@
   </si>
   <si>
     <t>player</t>
-  </si>
-  <si>
-    <t>2 louse</t>
-  </si>
-  <si>
-    <t>ice cream</t>
-  </si>
-  <si>
-    <t>jaw worm</t>
-  </si>
-  <si>
-    <t>wallop</t>
-  </si>
-  <si>
-    <t>bronze scales</t>
-  </si>
-  <si>
-    <t>small slimes</t>
-  </si>
-  <si>
-    <t>mental fortress</t>
-  </si>
-  <si>
-    <t>lagavulin</t>
-  </si>
-  <si>
-    <t>dream catcher</t>
-  </si>
-  <si>
-    <t>gremlin nob</t>
-  </si>
-  <si>
-    <t>ancient tea set</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>slaver</t>
-  </si>
-  <si>
-    <t>smoke bomb</t>
-  </si>
-  <si>
-    <t>empty fist</t>
-  </si>
-  <si>
-    <t>Lots of slimes</t>
-  </si>
-  <si>
-    <t>blasphemy</t>
-  </si>
-  <si>
-    <t>black star</t>
   </si>
   <si>
     <t>encounter_id</t>
@@ -2533,11 +2467,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED41618-E6CC-4E57-AA0B-136D7AFA2C5F}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2751,284 +2683,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F43258-D83B-4569-AF44-66E63A1ECB9B}">
-  <dimension ref="A1:A52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C3A75-08C1-4DA9-96B9-5CDD154084FC}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C8" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>278</v>
+        <v>678</v>
+      </c>
+      <c r="B1" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -3048,287 +2723,287 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3016,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3351,10 +3026,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="B1" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -4052,907 +3727,900 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282DAFAB-AC35-463B-BF0E-2797AEF2F45F}">
-  <dimension ref="A1:A179"/>
+  <dimension ref="A1:A178"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4962,42 +4630,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA6909D-2DC8-4B07-8CF5-6E54C1654D7E}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5006,10 +4669,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B07AE2-EF0A-4788-90BE-E233EF9E84DE}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D362B-AF3C-458B-A7B8-246C33B50B6C}">
   <dimension ref="A1:D339"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
@@ -5024,13 +4728,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5038,13 +4742,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5052,13 +4756,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5066,13 +4770,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -5080,13 +4784,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5094,13 +4798,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5108,13 +4812,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5122,13 +4826,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5136,13 +4840,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5150,13 +4854,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -5164,13 +4868,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5178,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5192,13 +4896,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5206,13 +4910,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5220,13 +4924,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -5234,13 +4938,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -5248,13 +4952,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -5262,13 +4966,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -5276,13 +4980,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -5290,13 +4994,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -5304,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -5318,13 +5022,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -5332,13 +5036,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -5346,13 +5050,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -5360,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -5374,13 +5078,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -5388,13 +5092,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -5402,13 +5106,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -5416,13 +5120,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -5430,13 +5134,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -5444,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -5458,13 +5162,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -5472,13 +5176,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -5486,13 +5190,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -5500,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -5514,13 +5218,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -5528,13 +5232,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -5542,13 +5246,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -5556,13 +5260,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -5570,13 +5274,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -5584,13 +5288,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -5598,13 +5302,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -5612,13 +5316,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -5626,13 +5330,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -5640,13 +5344,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -5654,13 +5358,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -5668,13 +5372,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -5682,13 +5386,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D48" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -5696,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -5710,13 +5414,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -5724,13 +5428,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -5738,13 +5442,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -5752,13 +5456,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -5766,13 +5470,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -5780,13 +5484,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -5794,13 +5498,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C56" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D56" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -5808,13 +5512,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -5822,13 +5526,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C58" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D58" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -5836,13 +5540,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D59" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -5850,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C60" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -5864,13 +5568,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C61" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -5878,13 +5582,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -5892,13 +5596,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -5906,13 +5610,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -5920,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -5934,13 +5638,13 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -5948,13 +5652,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -5962,13 +5666,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -5976,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -5990,13 +5694,13 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D70" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -6004,13 +5708,13 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C71" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -6018,13 +5722,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -6032,13 +5736,13 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -6046,13 +5750,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -6060,13 +5764,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C75" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -6074,13 +5778,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -6088,13 +5792,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -6102,13 +5806,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C78" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -6116,13 +5820,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -6130,13 +5834,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -6144,13 +5848,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C81" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -6158,13 +5862,13 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C82" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -6172,13 +5876,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -6186,13 +5890,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D84" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -6200,13 +5904,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -6214,13 +5918,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C86" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -6228,13 +5932,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -6242,13 +5946,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C88" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D88" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -6256,13 +5960,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C89" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -6270,13 +5974,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D90" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -6284,13 +5988,13 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -6298,13 +6002,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C92" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -6312,13 +6016,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -6326,13 +6030,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -6340,13 +6044,13 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -6354,13 +6058,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -6368,13 +6072,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D97" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -6382,13 +6086,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -6396,13 +6100,13 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C99" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D99" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -6410,13 +6114,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -6424,13 +6128,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C101" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -6438,13 +6142,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -6452,13 +6156,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C103" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -6466,13 +6170,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -6480,13 +6184,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -6494,13 +6198,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C106" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D106" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -6508,13 +6212,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -6522,13 +6226,13 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -6536,13 +6240,13 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C109" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D109" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -6550,13 +6254,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -6564,13 +6268,13 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C111" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -6578,13 +6282,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D112" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -6592,13 +6296,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C113" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -6606,13 +6310,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C114" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -6620,13 +6324,13 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D115" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -6634,13 +6338,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C116" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -6648,13 +6352,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C117" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D117" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -6662,13 +6366,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D118" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -6676,13 +6380,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D119" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -6690,13 +6394,13 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C120" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D120" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -6704,13 +6408,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C121" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D121" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -6718,13 +6422,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C122" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D122" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -6732,13 +6436,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D123" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -6746,13 +6450,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C124" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D124" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -6760,13 +6464,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D125" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
@@ -6774,13 +6478,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D126" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -6788,13 +6492,13 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D127" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -6802,13 +6506,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C128" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D128" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -6816,13 +6520,13 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C129" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D129" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -6830,13 +6534,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C130" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D130" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -6844,13 +6548,13 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -6858,13 +6562,13 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C132" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -6872,13 +6576,13 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C133" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D133" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -6886,13 +6590,13 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C134" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D134" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -6900,13 +6604,13 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D135" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -6914,13 +6618,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D136" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
@@ -6928,13 +6632,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C137" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -6942,13 +6646,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C138" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D138" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
@@ -6956,13 +6660,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C139" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D139" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -6970,13 +6674,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C140" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D140" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -6984,13 +6688,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C141" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D141" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -6998,13 +6702,13 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C142" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D142" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -7012,13 +6716,13 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C143" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D143" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -7026,13 +6730,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D144" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -7040,13 +6744,13 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C145" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D145" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -7054,13 +6758,13 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C146" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D146" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -7068,13 +6772,13 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C147" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D147" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
@@ -7082,13 +6786,13 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D148" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
@@ -7096,13 +6800,13 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C149" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D149" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
@@ -7110,13 +6814,13 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C150" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D150" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
@@ -7124,13 +6828,13 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C151" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D151" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
@@ -7138,13 +6842,13 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C152" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
@@ -7152,13 +6856,13 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C153" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
@@ -7166,13 +6870,13 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
@@ -7180,13 +6884,13 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C155" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
@@ -7194,13 +6898,13 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
@@ -7208,13 +6912,13 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C157" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
@@ -7222,13 +6926,13 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
@@ -7236,13 +6940,13 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C159" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
@@ -7250,13 +6954,13 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
@@ -7264,13 +6968,13 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
@@ -7278,13 +6982,13 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C162" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D162" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
@@ -7292,13 +6996,13 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C163" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
@@ -7306,13 +7010,13 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C164" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D164" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
@@ -7320,13 +7024,13 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D165" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
@@ -7334,13 +7038,13 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C166" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D166" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
@@ -7348,13 +7052,13 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C167" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D167" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
@@ -7362,13 +7066,13 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
@@ -7376,13 +7080,13 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C169" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D169" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
@@ -7390,13 +7094,13 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C170" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D170" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
@@ -7404,13 +7108,13 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C171" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D171" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
@@ -7418,13 +7122,13 @@
         <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C172" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D172" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
@@ -7432,13 +7136,13 @@
         <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C173" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D173" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
@@ -7446,13 +7150,13 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C174" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D174" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
@@ -7460,13 +7164,13 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C175" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D175" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
@@ -7474,13 +7178,13 @@
         <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C176" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D176" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -7488,13 +7192,13 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C177" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D177" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
@@ -7502,13 +7206,13 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C178" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D178" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
@@ -7516,13 +7220,13 @@
         <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C179" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D179" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -7530,13 +7234,13 @@
         <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C180" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D180" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
@@ -7544,13 +7248,13 @@
         <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C181" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D181" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
@@ -7558,13 +7262,13 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C182" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D182" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
@@ -7572,13 +7276,13 @@
         <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C183" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D183" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -7586,13 +7290,13 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C184" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D184" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
@@ -7600,13 +7304,13 @@
         <v>3</v>
       </c>
       <c r="B185" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C185" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D185" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
@@ -7614,13 +7318,13 @@
         <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C186" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D186" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
@@ -7628,13 +7332,13 @@
         <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D187" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
@@ -7642,13 +7346,13 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C188" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D188" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -7656,13 +7360,13 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C189" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D189" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -7670,13 +7374,13 @@
         <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C190" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D190" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -7684,13 +7388,13 @@
         <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C191" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D191" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -7698,13 +7402,13 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C192" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D192" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
@@ -7712,13 +7416,13 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C193" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D193" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -7726,13 +7430,13 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C194" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D194" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -7740,13 +7444,13 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C195" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D195" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -7754,13 +7458,13 @@
         <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C196" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D196" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -7768,13 +7472,13 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C197" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D197" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -7782,13 +7486,13 @@
         <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C198" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D198" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
@@ -7796,13 +7500,13 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C199" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D199" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -7810,13 +7514,13 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C200" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D200" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -7824,13 +7528,13 @@
         <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C201" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D201" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -7838,13 +7542,13 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C202" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D202" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
@@ -7852,13 +7556,13 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C203" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D203" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -7866,13 +7570,13 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C204" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D204" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
@@ -7880,13 +7584,13 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C205" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D205" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
@@ -7894,13 +7598,13 @@
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C206" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D206" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
@@ -7908,13 +7612,13 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C207" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D207" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -7922,13 +7626,13 @@
         <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C208" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D208" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -7936,13 +7640,13 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C209" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D209" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
@@ -7950,13 +7654,13 @@
         <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C210" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D210" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -7964,13 +7668,13 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C211" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D211" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -7978,13 +7682,13 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C212" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D212" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -7992,13 +7696,13 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C213" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D213" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -8006,13 +7710,13 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C214" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D214" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -8020,13 +7724,13 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C215" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D215" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -8034,13 +7738,13 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C216" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D216" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -8048,13 +7752,13 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C217" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D217" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -8062,13 +7766,13 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C218" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D218" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -8076,13 +7780,13 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C219" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D219" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
@@ -8090,13 +7794,13 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C220" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D220" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
@@ -8104,13 +7808,13 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C221" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D221" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
@@ -8118,13 +7822,13 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C222" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D222" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -8132,13 +7836,13 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C223" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D223" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
@@ -8146,13 +7850,13 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C224" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D224" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
@@ -8160,13 +7864,13 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C225" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D225" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
@@ -8174,13 +7878,13 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C226" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D226" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
@@ -8188,13 +7892,13 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C227" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D227" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
@@ -8202,13 +7906,13 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C228" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D228" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
@@ -8216,13 +7920,13 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C229" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D229" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
@@ -8230,13 +7934,13 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D230" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
@@ -8244,13 +7948,13 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C231" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D231" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
@@ -8258,13 +7962,13 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C232" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D232" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
@@ -8272,13 +7976,13 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C233" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D233" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
@@ -8286,13 +7990,13 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C234" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D234" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
@@ -8300,13 +8004,13 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C235" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D235" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
@@ -8314,13 +8018,13 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C236" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D236" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
@@ -8328,13 +8032,13 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C237" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D237" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
@@ -8342,13 +8046,13 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C238" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D238" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
@@ -8356,13 +8060,13 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D239" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
@@ -8370,13 +8074,13 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C240" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D240" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
@@ -8384,13 +8088,13 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C241" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D241" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -8398,13 +8102,13 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C242" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D242" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -8412,13 +8116,13 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C243" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D243" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -8426,13 +8130,13 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C244" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D244" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
@@ -8440,13 +8144,13 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C245" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D245" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
@@ -8454,13 +8158,13 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C246" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D246" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
@@ -8468,13 +8172,13 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C247" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D247" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -8482,13 +8186,13 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C248" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D248" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -8496,13 +8200,13 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C249" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D249" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -8510,13 +8214,13 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C250" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D250" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -8524,13 +8228,13 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C251" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D251" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -8538,13 +8242,13 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C252" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D252" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -8552,13 +8256,13 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C253" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D253" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -8566,13 +8270,13 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C254" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D254" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -8580,13 +8284,13 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C255" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D255" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -8594,13 +8298,13 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C256" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D256" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -8608,13 +8312,13 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C257" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D257" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
@@ -8622,13 +8326,13 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C258" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D258" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
@@ -8636,13 +8340,13 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C259" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D259" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
@@ -8650,13 +8354,13 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C260" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D260" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
@@ -8664,13 +8368,13 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C261" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D261" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
@@ -8678,13 +8382,13 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C262" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D262" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
@@ -8692,13 +8396,13 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C263" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D263" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
@@ -8706,13 +8410,13 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C264" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D264" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
@@ -8720,13 +8424,13 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C265" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D265" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
@@ -8734,13 +8438,13 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C266" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D266" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
@@ -8748,13 +8452,13 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C267" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D267" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
@@ -8762,13 +8466,13 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C268" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D268" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
@@ -8776,13 +8480,13 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C269" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D269" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
@@ -8790,13 +8494,13 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C270" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D270" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
@@ -8804,13 +8508,13 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C271" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D271" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
@@ -8818,13 +8522,13 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C272" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D272" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
@@ -8832,13 +8536,13 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C273" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D273" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
@@ -8846,13 +8550,13 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C274" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D274" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
@@ -8860,13 +8564,13 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C275" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D275" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
@@ -8874,13 +8578,13 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C276" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D276" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
@@ -8888,13 +8592,13 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C277" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D277" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
@@ -8902,13 +8606,13 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C278" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D278" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
@@ -8916,13 +8620,13 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C279" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D279" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
@@ -8930,13 +8634,13 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C280" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D280" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
@@ -8944,13 +8648,13 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C281" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D281" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
@@ -8958,13 +8662,13 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C282" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D282" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
@@ -8972,13 +8676,13 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C283" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D283" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
@@ -8986,13 +8690,13 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C284" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D284" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
@@ -9000,13 +8704,13 @@
         <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C285" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D285" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
@@ -9014,13 +8718,13 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C286" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D286" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
@@ -9028,13 +8732,13 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C287" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D287" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
@@ -9042,13 +8746,13 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C288" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D288" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
@@ -9056,13 +8760,13 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C289" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D289" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
@@ -9070,13 +8774,13 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C290" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D290" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
@@ -9084,13 +8788,13 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C291" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D291" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
@@ -9098,13 +8802,13 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C292" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D292" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
@@ -9112,13 +8816,13 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C293" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D293" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
@@ -9126,13 +8830,13 @@
         <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C294" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D294" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
@@ -9140,13 +8844,13 @@
         <v>5</v>
       </c>
       <c r="B295" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C295" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D295" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
@@ -9154,13 +8858,13 @@
         <v>5</v>
       </c>
       <c r="B296" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C296" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D296" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
@@ -9168,13 +8872,13 @@
         <v>5</v>
       </c>
       <c r="B297" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C297" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D297" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
@@ -9182,13 +8886,13 @@
         <v>5</v>
       </c>
       <c r="B298" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C298" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D298" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
@@ -9196,13 +8900,13 @@
         <v>5</v>
       </c>
       <c r="B299" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C299" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D299" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
@@ -9210,13 +8914,13 @@
         <v>5</v>
       </c>
       <c r="B300" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C300" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D300" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
@@ -9224,13 +8928,13 @@
         <v>5</v>
       </c>
       <c r="B301" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C301" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D301" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
@@ -9238,13 +8942,13 @@
         <v>5</v>
       </c>
       <c r="B302" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C302" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D302" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
@@ -9252,13 +8956,13 @@
         <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C303" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D303" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
@@ -9266,13 +8970,13 @@
         <v>5</v>
       </c>
       <c r="B304" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C304" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D304" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
@@ -9280,13 +8984,13 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C305" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D305" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
@@ -9294,13 +8998,13 @@
         <v>5</v>
       </c>
       <c r="B306" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C306" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D306" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
@@ -9308,13 +9012,13 @@
         <v>5</v>
       </c>
       <c r="B307" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C307" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D307" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
@@ -9322,13 +9026,13 @@
         <v>5</v>
       </c>
       <c r="B308" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C308" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D308" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
@@ -9336,13 +9040,13 @@
         <v>5</v>
       </c>
       <c r="B309" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C309" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D309" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
@@ -9350,13 +9054,13 @@
         <v>5</v>
       </c>
       <c r="B310" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C310" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D310" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
@@ -9364,13 +9068,13 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C311" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D311" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
@@ -9378,13 +9082,13 @@
         <v>5</v>
       </c>
       <c r="B312" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C312" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D312" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
@@ -9392,13 +9096,13 @@
         <v>5</v>
       </c>
       <c r="B313" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C313" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D313" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
@@ -9406,13 +9110,13 @@
         <v>5</v>
       </c>
       <c r="B314" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C314" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D314" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
@@ -9420,13 +9124,13 @@
         <v>5</v>
       </c>
       <c r="B315" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C315" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D315" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
@@ -9434,13 +9138,13 @@
         <v>5</v>
       </c>
       <c r="B316" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C316" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D316" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
@@ -9448,13 +9152,13 @@
         <v>5</v>
       </c>
       <c r="B317" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C317" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D317" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
@@ -9462,13 +9166,13 @@
         <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C318" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D318" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
@@ -9476,13 +9180,13 @@
         <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C319" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D319" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
@@ -9490,13 +9194,13 @@
         <v>5</v>
       </c>
       <c r="B320" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C320" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D320" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
@@ -9504,13 +9208,13 @@
         <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C321" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D321" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
@@ -9518,13 +9222,13 @@
         <v>5</v>
       </c>
       <c r="B322" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C322" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D322" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
@@ -9532,13 +9236,13 @@
         <v>5</v>
       </c>
       <c r="B323" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C323" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D323" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
@@ -9546,13 +9250,13 @@
         <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C324" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D324" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
@@ -9560,13 +9264,13 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C325" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D325" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
@@ -9574,13 +9278,13 @@
         <v>5</v>
       </c>
       <c r="B326" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C326" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D326" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
@@ -9588,13 +9292,13 @@
         <v>5</v>
       </c>
       <c r="B327" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C327" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D327" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
@@ -9602,13 +9306,13 @@
         <v>5</v>
       </c>
       <c r="B328" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C328" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D328" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
@@ -9616,13 +9320,13 @@
         <v>5</v>
       </c>
       <c r="B329" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C329" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D329" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
@@ -9630,13 +9334,13 @@
         <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C330" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D330" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
@@ -9644,13 +9348,13 @@
         <v>5</v>
       </c>
       <c r="B331" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C331" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D331" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
@@ -9658,13 +9362,13 @@
         <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C332" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D332" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
@@ -9672,13 +9376,13 @@
         <v>5</v>
       </c>
       <c r="B333" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C333" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D333" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
@@ -9686,13 +9390,13 @@
         <v>5</v>
       </c>
       <c r="B334" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C334" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D334" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
@@ -9700,13 +9404,13 @@
         <v>5</v>
       </c>
       <c r="B335" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C335" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D335" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
@@ -9714,13 +9418,13 @@
         <v>5</v>
       </c>
       <c r="B336" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C336" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D336" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
@@ -9728,13 +9432,13 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C337" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D337" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
@@ -9742,13 +9446,13 @@
         <v>5</v>
       </c>
       <c r="B338" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C338" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D338" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
@@ -9756,13 +9460,13 @@
         <v>5</v>
       </c>
       <c r="B339" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C339" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D339" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -9771,51 +9475,274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B07AE2-EF0A-4788-90BE-E233EF9E84DE}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F43258-D83B-4569-AF44-66E63A1ECB9B}">
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>686</v>
       </c>
-      <c r="B1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" t="s">
-        <v>678</v>
-      </c>
-      <c r="F1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -9823,12 +9750,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E9707-D3DF-4F7C-A503-C9CF70C9EA54}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C11" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9837,106 +9764,12 @@
     <col min="6" max="6" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>704</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A790E150-FBFA-4731-9451-0BA958AF9375}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -9945,46 +9778,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3F2A88-01FD-4B73-B72C-191F1F228E5A}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A790E150-FBFA-4731-9451-0BA958AF9375}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -9993,56 +9801,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C3A75-08C1-4DA9-96B9-5CDD154084FC}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3F2A88-01FD-4B73-B72C-191F1F228E5A}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" t="s">
         <v>681</v>
-      </c>
-      <c r="B1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>703</v>
       </c>
     </row>
   </sheetData>
